--- a/Excel outputs/MmmS outcome file Single simulation.xlsx
+++ b/Excel outputs/MmmS outcome file Single simulation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="495" yWindow="345" windowWidth="19860" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>Steatosis</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>OtherD</t>
+  </si>
+  <si>
+    <t>OtherDeath</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:AR190"/>
+  <dimension ref="A1:AR189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,6 +2488,9 @@
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
       <c r="B32">
         <v>0</v>
       </c>
@@ -3004,6 +3010,9 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
       <c r="B39">
         <v>0</v>
       </c>
@@ -3526,6 +3535,9 @@
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
       <c r="B46">
         <v>0</v>
       </c>
@@ -4049,7 +4061,9 @@
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
       <c r="B53">
         <v>0</v>
       </c>
@@ -7980,7 +7994,7 @@
       <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B109" s="1">
+      <c r="B109" s="6">
         <v>0</v>
       </c>
       <c r="C109">
@@ -13382,90 +13396,90 @@
         <v>2.3270746819427002</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC183" t="e">
-        <v>#N/A</v>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+      <c r="AB184">
+        <v>0</v>
+      </c>
+      <c r="AC184">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.25">
@@ -13903,92 +13917,6 @@
         <v>0</v>
       </c>
       <c r="AC189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>0</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-      <c r="K190">
-        <v>0</v>
-      </c>
-      <c r="L190">
-        <v>0</v>
-      </c>
-      <c r="M190">
-        <v>0</v>
-      </c>
-      <c r="N190">
-        <v>0</v>
-      </c>
-      <c r="O190">
-        <v>0</v>
-      </c>
-      <c r="P190">
-        <v>0</v>
-      </c>
-      <c r="Q190">
-        <v>0</v>
-      </c>
-      <c r="R190">
-        <v>0</v>
-      </c>
-      <c r="S190">
-        <v>0</v>
-      </c>
-      <c r="T190">
-        <v>0</v>
-      </c>
-      <c r="U190">
-        <v>0</v>
-      </c>
-      <c r="V190">
-        <v>0</v>
-      </c>
-      <c r="W190">
-        <v>0</v>
-      </c>
-      <c r="X190">
-        <v>0</v>
-      </c>
-      <c r="Y190">
-        <v>0</v>
-      </c>
-      <c r="Z190">
-        <v>0</v>
-      </c>
-      <c r="AA190">
-        <v>0</v>
-      </c>
-      <c r="AB190">
-        <v>0</v>
-      </c>
-      <c r="AC190">
         <v>0</v>
       </c>
     </row>
